--- a/TEMP/EMPRESA_016/S A L D O   D E   E G R E S O   T E M P O R I Z A D O.xlsx
+++ b/TEMP/EMPRESA_016/S A L D O   D E   E G R E S O   T E M P O R I Z A D O.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>CENTRO MEDICO MATERNAL PAEZ ALMEIDA NARANJO SOCIEDAD COLECTIVA CIVIL</t>
   </si>
@@ -42,7 +42,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">22:57
+      <t xml:space="preserve">21:50
 </t>
     </r>
     <r>
@@ -67,7 +67,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">22-03-2022
+      <t xml:space="preserve">15-06-2022
 </t>
     </r>
     <r>
@@ -130,27 +130,6 @@
   </si>
   <si>
     <t>Ven mas de 360</t>
-  </si>
-  <si>
-    <t>HONORARIOS MEDICOS HOSPITALIZACION</t>
-  </si>
-  <si>
-    <t>CHACON BECERRA MAURICIO ANDRES</t>
-  </si>
-  <si>
-    <t>2022-02-01</t>
-  </si>
-  <si>
-    <t>SERVICIOS LABORATORIO CONSULTA EXTERNA</t>
-  </si>
-  <si>
-    <t>TAPIA CALVOPIÑA MILTON PATRICIO</t>
-  </si>
-  <si>
-    <t>SERVICIOS MEDICOS ENFERMERIA UCIN</t>
-  </si>
-  <si>
-    <t>FUENTES MORETA DELIA NANCY</t>
   </si>
 </sst>
 </file>
@@ -605,7 +584,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="K3" sqref="K3"/>
@@ -663,7 +642,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">22:57
+            <t xml:space="preserve">21:50
 </t>
           </r>
           <r>
@@ -688,7 +667,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">22-03-2022
+            <t xml:space="preserve">15-06-2022
 </t>
           </r>
           <r>
@@ -758,111 +737,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>0.0</v>
-      </c>
-      <c r="G4">
-        <v>900.0</v>
-      </c>
-      <c r="H4">
-        <v>0.0</v>
-      </c>
-      <c r="I4">
-        <v>0.0</v>
-      </c>
-      <c r="J4">
-        <v>0.0</v>
-      </c>
-      <c r="K4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>0.0</v>
-      </c>
-      <c r="F5">
-        <v>0.0</v>
-      </c>
-      <c r="G5">
-        <v>143165.0</v>
-      </c>
-      <c r="H5">
-        <v>0.0</v>
-      </c>
-      <c r="I5">
-        <v>0.0</v>
-      </c>
-      <c r="J5">
-        <v>0.0</v>
-      </c>
-      <c r="K5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>0.0</v>
-      </c>
-      <c r="F6">
-        <v>0.0</v>
-      </c>
-      <c r="G6">
-        <v>2785.76</v>
-      </c>
-      <c r="H6">
-        <v>0.0</v>
-      </c>
-      <c r="I6">
-        <v>0.0</v>
-      </c>
-      <c r="J6">
-        <v>0.0</v>
-      </c>
-      <c r="K6">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
